--- a/UserStories.xlsx
+++ b/UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Sprint</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>den von tcp gedumpten log auswerten und zur Archivierung herunterladen</t>
+  </si>
+  <si>
+    <t>Priorität</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,7 +635,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +643,7 @@
     <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,7 +664,9 @@
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -676,6 +703,9 @@
       <c r="G3">
         <v>24</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -696,6 +726,9 @@
       <c r="G4">
         <v>24</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -716,6 +749,9 @@
       <c r="G5">
         <v>9</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -736,6 +772,9 @@
       <c r="G6">
         <v>6</v>
       </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -755,6 +794,9 @@
       </c>
       <c r="G7">
         <v>12</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,6 +834,9 @@
       <c r="G10">
         <v>24</v>
       </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -812,6 +857,9 @@
       <c r="G11">
         <v>18</v>
       </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -832,6 +880,9 @@
       <c r="G12">
         <v>10</v>
       </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -852,6 +903,9 @@
       <c r="G13">
         <v>15</v>
       </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -871,6 +925,9 @@
       </c>
       <c r="G14">
         <v>8</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,6 +980,9 @@
       <c r="G21">
         <v>8</v>
       </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -943,6 +1003,9 @@
       <c r="G22">
         <v>24</v>
       </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -963,6 +1026,9 @@
       <c r="G23">
         <v>4</v>
       </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -983,6 +1049,9 @@
       <c r="G24">
         <v>12</v>
       </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1002,6 +1071,9 @@
       </c>
       <c r="G25">
         <v>6</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,6 +1111,9 @@
       <c r="G30">
         <v>13</v>
       </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1059,6 +1134,9 @@
       <c r="G31">
         <v>6</v>
       </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1079,8 +1157,11 @@
       <c r="G32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1099,8 +1180,11 @@
       <c r="G33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1119,8 +1203,11 @@
       <c r="G34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1139,8 +1226,11 @@
       <c r="G35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -1159,8 +1249,11 @@
       <c r="G36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G37" s="3">
         <f>SUM(G3:G36)</f>
         <v>261</v>
@@ -1168,21 +1261,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:E7 F3:F5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$F$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$E$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F86917AC-8BB4-4FAC-9517-8EF7CBB57F67}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F86917AC-8BB4-4FAC-9517-8EF7CBB57F67}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>